--- a/simResults/varying noOfExecutables/analysis.xlsx
+++ b/simResults/varying noOfExecutables/analysis.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="690" windowWidth="28035" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="690" windowWidth="28035" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="results by node" sheetId="2" r:id="rId2"/>
     <sheet name="results by request" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="40">
   <si>
     <t>Config:</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>price per stored item</t>
+  </si>
+  <si>
+    <t>VARYING THE NUMBER OF EXECUTABLES (i.e., increasing storage overload at the edge)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +459,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -617,8 +626,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1175,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90518272"/>
-        <c:axId val="90519808"/>
+        <c:axId val="80263040"/>
+        <c:axId val="80264576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90518272"/>
+        <c:axId val="80263040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90519808"/>
+        <c:crossAx val="80264576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1197,7 +1207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90519808"/>
+        <c:axId val="80264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90518272"/>
+        <c:crossAx val="80263040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,11 +1741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86631936"/>
-        <c:axId val="86633472"/>
+        <c:axId val="80409728"/>
+        <c:axId val="80411264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86631936"/>
+        <c:axId val="80409728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86633472"/>
+        <c:crossAx val="80411264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1753,7 +1763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86633472"/>
+        <c:axId val="80411264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,14 +1774,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86631936"/>
+        <c:crossAx val="80409728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2143,225 +2152,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>120000</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>10000</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>10000</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>120000</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>30.004000000000001</v>
-      </c>
-      <c r="C6">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>30.004000000000001</v>
       </c>
       <c r="C8">
-        <v>1199456.6107000001</v>
-      </c>
-      <c r="D8">
-        <v>365.74889999999999</v>
-      </c>
-      <c r="E8">
-        <v>1199692</v>
-      </c>
-      <c r="F8">
-        <v>308</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>365.74889999999999</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>308</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>308.4939</v>
+        <v>1199456.6107000001</v>
       </c>
       <c r="D10">
         <v>365.74889999999999</v>
       </c>
       <c r="E10">
+        <v>1199692</v>
+      </c>
+      <c r="F10">
         <v>308</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -2369,217 +2345,217 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>365.74889999999999</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>308</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>308.4939</v>
+      </c>
+      <c r="D12">
+        <v>365.74889999999999</v>
+      </c>
+      <c r="E12">
+        <v>308</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>120000</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
-      </c>
-      <c r="F13">
-        <v>10000</v>
-      </c>
-      <c r="G13">
-        <v>10000</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>10000</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
+      <c r="A13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>120000</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>10000</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>10000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>30.004000000000001</v>
-      </c>
-      <c r="C16">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>30.004000000000001</v>
       </c>
       <c r="C18">
-        <v>1199456.78</v>
-      </c>
-      <c r="D18">
-        <v>944.29139999999995</v>
-      </c>
-      <c r="E18">
-        <v>1199692</v>
-      </c>
-      <c r="F18">
-        <v>308</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>944.29139999999995</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>308</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>308.4939</v>
+        <v>1199456.78</v>
       </c>
       <c r="D20">
         <v>944.29139999999995</v>
       </c>
       <c r="E20">
+        <v>1199692</v>
+      </c>
+      <c r="F20">
         <v>308</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -2587,3925 +2563,3971 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>944.29139999999995</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>308</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>308.4939</v>
+      </c>
+      <c r="D22">
+        <v>944.29139999999995</v>
+      </c>
+      <c r="E22">
+        <v>308</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>120000</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23">
-        <v>500</v>
-      </c>
-      <c r="F23">
-        <v>10000</v>
-      </c>
-      <c r="G23">
-        <v>10000</v>
-      </c>
-      <c r="H23">
-        <v>30</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-      <c r="J23">
-        <v>40</v>
-      </c>
-      <c r="K23">
-        <v>15</v>
-      </c>
-      <c r="L23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>10000</v>
-      </c>
-      <c r="O23" t="s">
-        <v>17</v>
+      <c r="A23" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>120000</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25">
+        <v>10000</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>10000</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>36.669499999999999</v>
-      </c>
-      <c r="C26">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>36.669499999999999</v>
       </c>
       <c r="C28">
-        <v>799671.16630000004</v>
-      </c>
-      <c r="D28">
-        <v>1166.296</v>
-      </c>
-      <c r="E28">
-        <v>799919</v>
-      </c>
-      <c r="F28">
-        <v>400081</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>399715.21059999999</v>
-      </c>
-      <c r="D29">
-        <v>1486.9009000000001</v>
-      </c>
-      <c r="E29">
-        <v>399703</v>
-      </c>
-      <c r="F29">
-        <v>378</v>
-      </c>
-      <c r="G29">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>377.86849999999998</v>
+        <v>799671.16630000004</v>
       </c>
       <c r="D30">
-        <v>1486.9009000000001</v>
+        <v>1166.296</v>
       </c>
       <c r="E30">
-        <v>378</v>
+        <v>799919</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>400081</v>
       </c>
       <c r="G30">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>399715.21059999999</v>
+      </c>
+      <c r="D31">
+        <v>1486.9009000000001</v>
+      </c>
+      <c r="E31">
+        <v>399703</v>
+      </c>
+      <c r="F31">
+        <v>378</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>377.86849999999998</v>
+      </c>
+      <c r="D32">
+        <v>1486.9009000000001</v>
+      </c>
+      <c r="E32">
+        <v>378</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33">
-        <v>120000</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <v>500</v>
-      </c>
-      <c r="F33">
-        <v>10000</v>
-      </c>
-      <c r="G33">
-        <v>10000</v>
-      </c>
-      <c r="H33">
-        <v>30</v>
-      </c>
-      <c r="I33">
-        <v>20</v>
-      </c>
-      <c r="J33">
-        <v>40</v>
-      </c>
-      <c r="K33">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33">
-        <v>10</v>
-      </c>
-      <c r="N33">
-        <v>10000</v>
-      </c>
-      <c r="O33" t="s">
-        <v>17</v>
+      <c r="A33" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>120000</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>500</v>
+      </c>
+      <c r="F35">
+        <v>10000</v>
+      </c>
+      <c r="G35">
+        <v>10000</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>40</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10000</v>
+      </c>
+      <c r="O35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>41.996899999999997</v>
-      </c>
-      <c r="C36">
-        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>41.996899999999997</v>
       </c>
       <c r="C38">
-        <v>480096.0024</v>
-      </c>
-      <c r="D38">
-        <v>1024.6857</v>
-      </c>
-      <c r="E38">
-        <v>480068</v>
-      </c>
-      <c r="F38">
-        <v>719932</v>
-      </c>
-      <c r="G38">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>719250.50329999998</v>
-      </c>
-      <c r="D39">
-        <v>1947.3558</v>
-      </c>
-      <c r="E39">
-        <v>719514</v>
-      </c>
-      <c r="F39">
-        <v>418</v>
-      </c>
-      <c r="G39">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>416.0915</v>
+        <v>480096.0024</v>
       </c>
       <c r="D40">
-        <v>1947.3558</v>
+        <v>1024.6857</v>
       </c>
       <c r="E40">
-        <v>418</v>
+        <v>480068</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>719932</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>719250.50329999998</v>
+      </c>
+      <c r="D41">
+        <v>1947.3558</v>
+      </c>
+      <c r="E41">
+        <v>719514</v>
+      </c>
+      <c r="F41">
+        <v>418</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>416.0915</v>
+      </c>
+      <c r="D42">
+        <v>1947.3558</v>
+      </c>
+      <c r="E42">
+        <v>418</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <v>120000</v>
-      </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43">
-        <v>500</v>
-      </c>
-      <c r="F43">
-        <v>10000</v>
-      </c>
-      <c r="G43">
-        <v>10000</v>
-      </c>
-      <c r="H43">
-        <v>30</v>
-      </c>
-      <c r="I43">
-        <v>20</v>
-      </c>
-      <c r="J43">
-        <v>40</v>
-      </c>
-      <c r="K43">
-        <v>25</v>
-      </c>
-      <c r="L43" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>10000</v>
-      </c>
-      <c r="O43" t="s">
-        <v>17</v>
+      <c r="A43" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>120000</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>10000</v>
+      </c>
+      <c r="G45">
+        <v>10000</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>10000</v>
+      </c>
+      <c r="O45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>43.616700000000002</v>
-      </c>
-      <c r="C46">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>43.616700000000002</v>
       </c>
       <c r="C48">
-        <v>383227.46639999998</v>
-      </c>
-      <c r="D48">
-        <v>1064.9291000000001</v>
-      </c>
-      <c r="E48">
-        <v>383414</v>
-      </c>
-      <c r="F48">
-        <v>816586</v>
-      </c>
-      <c r="G48">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49">
-        <v>816099.70050000004</v>
-      </c>
-      <c r="D49">
-        <v>2434.8987000000002</v>
-      </c>
-      <c r="E49">
-        <v>816152</v>
-      </c>
-      <c r="F49">
-        <v>434</v>
-      </c>
-      <c r="G49">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
         <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C50">
-        <v>433.66239999999999</v>
+        <v>383227.46639999998</v>
       </c>
       <c r="D50">
-        <v>2434.8987000000002</v>
+        <v>1064.9291000000001</v>
       </c>
       <c r="E50">
-        <v>434</v>
+        <v>383414</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>816586</v>
       </c>
       <c r="G50">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>816099.70050000004</v>
+      </c>
+      <c r="D51">
+        <v>2434.8987000000002</v>
+      </c>
+      <c r="E51">
+        <v>816152</v>
+      </c>
+      <c r="F51">
+        <v>434</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" t="s">
-        <v>14</v>
-      </c>
-      <c r="O52" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <v>433.66239999999999</v>
+      </c>
+      <c r="D52">
+        <v>2434.8987000000002</v>
+      </c>
+      <c r="E52">
+        <v>434</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>50</v>
-      </c>
-      <c r="C53">
-        <v>120000</v>
-      </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
-      <c r="E53">
-        <v>500</v>
-      </c>
-      <c r="F53">
-        <v>10000</v>
-      </c>
-      <c r="G53">
-        <v>10000</v>
-      </c>
-      <c r="H53">
-        <v>30</v>
-      </c>
-      <c r="I53">
-        <v>20</v>
-      </c>
-      <c r="J53">
-        <v>40</v>
-      </c>
-      <c r="K53">
-        <v>30</v>
-      </c>
-      <c r="L53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53">
-        <v>10</v>
-      </c>
-      <c r="N53">
-        <v>10000</v>
-      </c>
-      <c r="O53" t="s">
-        <v>17</v>
+      <c r="A53" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>120000</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>500</v>
+      </c>
+      <c r="F55">
+        <v>10000</v>
+      </c>
+      <c r="G55">
+        <v>10000</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>40</v>
+      </c>
+      <c r="K55">
+        <v>30</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>10000</v>
+      </c>
+      <c r="O55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>15</v>
-      </c>
-      <c r="B56">
-        <v>44.674399999999999</v>
-      </c>
-      <c r="C56">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>44.674399999999999</v>
       </c>
       <c r="C58">
-        <v>319806.39380000002</v>
-      </c>
-      <c r="D58">
-        <v>1060.5817999999999</v>
-      </c>
-      <c r="E58">
-        <v>319801</v>
-      </c>
-      <c r="F58">
-        <v>880199</v>
-      </c>
-      <c r="G58">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59">
-        <v>879508.68759999995</v>
-      </c>
-      <c r="D59">
-        <v>2970.4580999999998</v>
-      </c>
-      <c r="E59">
-        <v>879752</v>
-      </c>
-      <c r="F59">
-        <v>447</v>
-      </c>
-      <c r="G59">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>447.22579999999999</v>
+        <v>319806.39380000002</v>
       </c>
       <c r="D60">
-        <v>2970.4580999999998</v>
+        <v>1060.5817999999999</v>
       </c>
       <c r="E60">
-        <v>447</v>
+        <v>319801</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>880199</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>879508.68759999995</v>
+      </c>
+      <c r="D61">
+        <v>2970.4580999999998</v>
+      </c>
+      <c r="E61">
+        <v>879752</v>
+      </c>
+      <c r="F61">
+        <v>447</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" t="s">
-        <v>13</v>
-      </c>
-      <c r="N62" t="s">
-        <v>14</v>
-      </c>
-      <c r="O62" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C62">
+        <v>447.22579999999999</v>
+      </c>
+      <c r="D62">
+        <v>2970.4580999999998</v>
+      </c>
+      <c r="E62">
+        <v>447</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>50</v>
-      </c>
-      <c r="C63">
-        <v>120000</v>
-      </c>
-      <c r="D63">
-        <v>100</v>
-      </c>
-      <c r="E63">
-        <v>500</v>
-      </c>
-      <c r="F63">
-        <v>10000</v>
-      </c>
-      <c r="G63">
-        <v>10000</v>
-      </c>
-      <c r="H63">
-        <v>30</v>
-      </c>
-      <c r="I63">
-        <v>20</v>
-      </c>
-      <c r="J63">
-        <v>40</v>
-      </c>
-      <c r="K63">
-        <v>35</v>
-      </c>
-      <c r="L63" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63">
-        <v>10</v>
-      </c>
-      <c r="N63">
-        <v>10000</v>
-      </c>
-      <c r="O63" t="s">
-        <v>17</v>
+      <c r="A63" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" t="s">
+        <v>14</v>
+      </c>
+      <c r="O64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>120000</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+      <c r="F65">
+        <v>10000</v>
+      </c>
+      <c r="G65">
+        <v>10000</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>20</v>
+      </c>
+      <c r="J65">
+        <v>40</v>
+      </c>
+      <c r="K65">
+        <v>35</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+      <c r="N65">
+        <v>10000</v>
+      </c>
+      <c r="O65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>15</v>
-      </c>
-      <c r="B66">
-        <v>44.875799999999998</v>
-      </c>
-      <c r="C66">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>30</v>
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>44.875799999999998</v>
       </c>
       <c r="C68">
-        <v>307615.6557</v>
-      </c>
-      <c r="D68">
-        <v>1240.2662</v>
-      </c>
-      <c r="E68">
-        <v>307757</v>
-      </c>
-      <c r="F68">
-        <v>892243</v>
-      </c>
-      <c r="G68">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69">
-        <v>891701.65549999999</v>
-      </c>
-      <c r="D69">
-        <v>3547.1709999999998</v>
-      </c>
-      <c r="E69">
-        <v>891801</v>
-      </c>
-      <c r="F69">
-        <v>442</v>
-      </c>
-      <c r="G69">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>445.68040000000002</v>
+        <v>307615.6557</v>
       </c>
       <c r="D70">
-        <v>3547.1709999999998</v>
+        <v>1240.2662</v>
       </c>
       <c r="E70">
-        <v>442</v>
+        <v>307757</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>892243</v>
       </c>
       <c r="G70">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <v>891701.65549999999</v>
+      </c>
+      <c r="D71">
+        <v>3547.1709999999998</v>
+      </c>
+      <c r="E71">
+        <v>891801</v>
+      </c>
+      <c r="F71">
+        <v>442</v>
+      </c>
+      <c r="G71">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" t="s">
-        <v>11</v>
-      </c>
-      <c r="L72" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" t="s">
-        <v>13</v>
-      </c>
-      <c r="N72" t="s">
-        <v>14</v>
-      </c>
-      <c r="O72" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>445.68040000000002</v>
+      </c>
+      <c r="D72">
+        <v>3547.1709999999998</v>
+      </c>
+      <c r="E72">
+        <v>442</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>50</v>
-      </c>
-      <c r="C73">
-        <v>120000</v>
-      </c>
-      <c r="D73">
-        <v>100</v>
-      </c>
-      <c r="E73">
-        <v>500</v>
-      </c>
-      <c r="F73">
-        <v>10000</v>
-      </c>
-      <c r="G73">
-        <v>10000</v>
-      </c>
-      <c r="H73">
-        <v>30</v>
-      </c>
-      <c r="I73">
-        <v>20</v>
-      </c>
-      <c r="J73">
-        <v>40</v>
-      </c>
-      <c r="K73">
-        <v>40</v>
-      </c>
-      <c r="L73" t="s">
-        <v>16</v>
-      </c>
-      <c r="M73">
-        <v>10</v>
-      </c>
-      <c r="N73">
-        <v>10000</v>
-      </c>
-      <c r="O73" t="s">
-        <v>17</v>
+      <c r="A73" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>120000</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>500</v>
+      </c>
+      <c r="F75">
+        <v>10000</v>
+      </c>
+      <c r="G75">
+        <v>10000</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75">
+        <v>20</v>
+      </c>
+      <c r="J75">
+        <v>40</v>
+      </c>
+      <c r="K75">
+        <v>40</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75">
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>10000</v>
+      </c>
+      <c r="O75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>15</v>
-      </c>
-      <c r="B76">
-        <v>45.021099999999997</v>
-      </c>
-      <c r="C76">
-        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" t="s">
-        <v>30</v>
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>45.021099999999997</v>
       </c>
       <c r="C78">
-        <v>299245.554</v>
-      </c>
-      <c r="D78">
-        <v>1287.6687999999999</v>
-      </c>
-      <c r="E78">
-        <v>299147</v>
-      </c>
-      <c r="F78">
-        <v>900853</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79">
-        <v>900079.06579999998</v>
-      </c>
-      <c r="D79">
-        <v>3930.6381999999999</v>
-      </c>
-      <c r="E79">
-        <v>900414</v>
-      </c>
-      <c r="F79">
-        <v>439</v>
-      </c>
-      <c r="G79">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>438.86360000000002</v>
+        <v>299245.554</v>
       </c>
       <c r="D80">
-        <v>3930.6381999999999</v>
+        <v>1287.6687999999999</v>
       </c>
       <c r="E80">
-        <v>439</v>
+        <v>299147</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>900853</v>
       </c>
       <c r="G80">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81">
+        <v>900079.06579999998</v>
+      </c>
+      <c r="D81">
+        <v>3930.6381999999999</v>
+      </c>
+      <c r="E81">
+        <v>900414</v>
+      </c>
+      <c r="F81">
+        <v>439</v>
+      </c>
+      <c r="G81">
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" t="s">
-        <v>9</v>
-      </c>
-      <c r="J82" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82" t="s">
-        <v>12</v>
-      </c>
-      <c r="M82" t="s">
-        <v>13</v>
-      </c>
-      <c r="N82" t="s">
-        <v>14</v>
-      </c>
-      <c r="O82" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C82">
+        <v>438.86360000000002</v>
+      </c>
+      <c r="D82">
+        <v>3930.6381999999999</v>
+      </c>
+      <c r="E82">
+        <v>439</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>50</v>
-      </c>
-      <c r="C83">
-        <v>120000</v>
-      </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
-      <c r="E83">
-        <v>500</v>
-      </c>
-      <c r="F83">
-        <v>10000</v>
-      </c>
-      <c r="G83">
-        <v>10000</v>
-      </c>
-      <c r="H83">
-        <v>30</v>
-      </c>
-      <c r="I83">
-        <v>20</v>
-      </c>
-      <c r="J83">
-        <v>40</v>
-      </c>
-      <c r="K83">
-        <v>45</v>
-      </c>
-      <c r="L83" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83">
-        <v>10</v>
-      </c>
-      <c r="N83">
-        <v>10000</v>
-      </c>
-      <c r="O83" t="s">
-        <v>17</v>
+      <c r="A83" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>120000</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+      <c r="F85">
+        <v>10000</v>
+      </c>
+      <c r="G85">
+        <v>10000</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85">
+        <v>20</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>45</v>
+      </c>
+      <c r="L85" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85">
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>10000</v>
+      </c>
+      <c r="O85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>15</v>
-      </c>
-      <c r="B86">
-        <v>46.457000000000001</v>
-      </c>
-      <c r="C86">
-        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" t="s">
-        <v>30</v>
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>46.457000000000001</v>
       </c>
       <c r="C88">
-        <v>213017.59839999999</v>
-      </c>
-      <c r="D88">
-        <v>1096.7463</v>
-      </c>
-      <c r="E88">
-        <v>213186</v>
-      </c>
-      <c r="F88">
-        <v>986814</v>
-      </c>
-      <c r="G88">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89">
-        <v>986295.77110000001</v>
-      </c>
-      <c r="D89">
-        <v>4424.2655000000004</v>
-      </c>
-      <c r="E89">
-        <v>986366</v>
-      </c>
-      <c r="F89">
-        <v>448</v>
-      </c>
-      <c r="G89">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>447.27980000000002</v>
+        <v>213017.59839999999</v>
       </c>
       <c r="D90">
-        <v>4424.2655000000004</v>
+        <v>1096.7463</v>
       </c>
       <c r="E90">
-        <v>448</v>
+        <v>213186</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>986814</v>
       </c>
       <c r="G90">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91">
+        <v>986295.77110000001</v>
+      </c>
+      <c r="D91">
+        <v>4424.2655000000004</v>
+      </c>
+      <c r="E91">
+        <v>986366</v>
+      </c>
+      <c r="F91">
+        <v>448</v>
+      </c>
+      <c r="G91">
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" t="s">
-        <v>9</v>
-      </c>
-      <c r="J92" t="s">
-        <v>10</v>
-      </c>
-      <c r="K92" t="s">
-        <v>11</v>
-      </c>
-      <c r="L92" t="s">
-        <v>12</v>
-      </c>
-      <c r="M92" t="s">
-        <v>13</v>
-      </c>
-      <c r="N92" t="s">
-        <v>14</v>
-      </c>
-      <c r="O92" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>447.27980000000002</v>
+      </c>
+      <c r="D92">
+        <v>4424.2655000000004</v>
+      </c>
+      <c r="E92">
+        <v>448</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>0</v>
-      </c>
-      <c r="B93">
-        <v>50</v>
-      </c>
-      <c r="C93">
-        <v>120000</v>
-      </c>
-      <c r="D93">
-        <v>100</v>
-      </c>
-      <c r="E93">
-        <v>500</v>
-      </c>
-      <c r="F93">
-        <v>10000</v>
-      </c>
-      <c r="G93">
-        <v>10000</v>
-      </c>
-      <c r="H93">
-        <v>30</v>
-      </c>
-      <c r="I93">
-        <v>20</v>
-      </c>
-      <c r="J93">
-        <v>40</v>
-      </c>
-      <c r="K93">
-        <v>50</v>
-      </c>
-      <c r="L93" t="s">
-        <v>16</v>
-      </c>
-      <c r="M93">
-        <v>10</v>
-      </c>
-      <c r="N93">
-        <v>10000</v>
-      </c>
-      <c r="O93" t="s">
-        <v>17</v>
+      <c r="A93" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94" t="s">
+        <v>14</v>
+      </c>
+      <c r="O94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>120000</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+      <c r="E95">
+        <v>500</v>
+      </c>
+      <c r="F95">
+        <v>10000</v>
+      </c>
+      <c r="G95">
+        <v>10000</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95">
+        <v>20</v>
+      </c>
+      <c r="J95">
+        <v>40</v>
+      </c>
+      <c r="K95">
+        <v>50</v>
+      </c>
+      <c r="L95" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95">
+        <v>10</v>
+      </c>
+      <c r="N95">
+        <v>10000</v>
+      </c>
+      <c r="O95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>15</v>
-      </c>
-      <c r="B96">
-        <v>47.197099999999999</v>
-      </c>
-      <c r="C96">
-        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" t="s">
-        <v>30</v>
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>47.197099999999999</v>
       </c>
       <c r="C98">
-        <v>216685.23670000001</v>
-      </c>
-      <c r="D98">
-        <v>1239.7288000000001</v>
-      </c>
-      <c r="E98">
-        <v>216588</v>
-      </c>
-      <c r="F98">
-        <v>983412</v>
-      </c>
-      <c r="G98">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99">
-        <v>958565.58440000005</v>
-      </c>
-      <c r="D99">
-        <v>4911.7866999999997</v>
-      </c>
-      <c r="E99">
-        <v>958952</v>
-      </c>
-      <c r="F99">
-        <v>24460</v>
-      </c>
-      <c r="G99">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>24510.286499999998</v>
+        <v>216685.23670000001</v>
       </c>
       <c r="D100">
-        <v>4962.6457</v>
+        <v>1239.7288000000001</v>
       </c>
       <c r="E100">
-        <v>24460</v>
+        <v>216588</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>983412</v>
       </c>
       <c r="G100">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>958565.58440000005</v>
+      </c>
+      <c r="D101">
+        <v>4911.7866999999997</v>
+      </c>
+      <c r="E101">
+        <v>958952</v>
+      </c>
+      <c r="F101">
+        <v>24460</v>
+      </c>
+      <c r="G101">
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" t="s">
-        <v>7</v>
-      </c>
-      <c r="H102" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" t="s">
-        <v>9</v>
-      </c>
-      <c r="J102" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" t="s">
-        <v>11</v>
-      </c>
-      <c r="L102" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" t="s">
-        <v>13</v>
-      </c>
-      <c r="N102" t="s">
-        <v>14</v>
-      </c>
-      <c r="O102" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>24510.286499999998</v>
+      </c>
+      <c r="D102">
+        <v>4962.6457</v>
+      </c>
+      <c r="E102">
+        <v>24460</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103">
-        <v>50</v>
-      </c>
-      <c r="C103">
-        <v>120000</v>
-      </c>
-      <c r="D103">
-        <v>100</v>
-      </c>
-      <c r="E103">
-        <v>500</v>
-      </c>
-      <c r="F103">
-        <v>10000</v>
-      </c>
-      <c r="G103">
-        <v>10000</v>
-      </c>
-      <c r="H103">
-        <v>30</v>
-      </c>
-      <c r="I103">
-        <v>20</v>
-      </c>
-      <c r="J103">
-        <v>40</v>
-      </c>
-      <c r="K103">
-        <v>55</v>
-      </c>
-      <c r="L103" t="s">
-        <v>16</v>
-      </c>
-      <c r="M103">
-        <v>10</v>
-      </c>
-      <c r="N103">
-        <v>10000</v>
-      </c>
-      <c r="O103" t="s">
-        <v>17</v>
+      <c r="A103" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" t="s">
+        <v>9</v>
+      </c>
+      <c r="J104" t="s">
+        <v>10</v>
+      </c>
+      <c r="K104" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" t="s">
+        <v>12</v>
+      </c>
+      <c r="M104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N104" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>120000</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+      <c r="E105">
+        <v>500</v>
+      </c>
+      <c r="F105">
+        <v>10000</v>
+      </c>
+      <c r="G105">
+        <v>10000</v>
+      </c>
+      <c r="H105">
+        <v>30</v>
+      </c>
+      <c r="I105">
+        <v>20</v>
+      </c>
+      <c r="J105">
+        <v>40</v>
+      </c>
+      <c r="K105">
+        <v>55</v>
+      </c>
+      <c r="L105" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105">
+        <v>10</v>
+      </c>
+      <c r="N105">
+        <v>10000</v>
+      </c>
+      <c r="O105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>19</v>
-      </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>49.627899999999997</v>
-      </c>
-      <c r="C106">
-        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" t="s">
-        <v>30</v>
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>49.627899999999997</v>
       </c>
       <c r="C108">
-        <v>196393.9535</v>
-      </c>
-      <c r="D108">
-        <v>1291.8444999999999</v>
-      </c>
-      <c r="E108">
-        <v>196781</v>
-      </c>
-      <c r="F108">
-        <v>1003219</v>
-      </c>
-      <c r="G108">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109">
-        <v>915898.48450000002</v>
-      </c>
-      <c r="D109">
-        <v>5269.5522000000001</v>
-      </c>
-      <c r="E109">
-        <v>915790</v>
-      </c>
-      <c r="F109">
-        <v>87429</v>
-      </c>
-      <c r="G109">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C110">
-        <v>87467.437300000005</v>
+        <v>196393.9535</v>
       </c>
       <c r="D110">
-        <v>5499.1171000000004</v>
+        <v>1291.8444999999999</v>
       </c>
       <c r="E110">
-        <v>87429</v>
+        <v>196781</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1003219</v>
       </c>
       <c r="G110">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111">
+        <v>915898.48450000002</v>
+      </c>
+      <c r="D111">
+        <v>5269.5522000000001</v>
+      </c>
+      <c r="E111">
+        <v>915790</v>
+      </c>
+      <c r="F111">
+        <v>87429</v>
+      </c>
+      <c r="G111">
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" t="s">
-        <v>7</v>
-      </c>
-      <c r="H112" t="s">
-        <v>8</v>
-      </c>
-      <c r="I112" t="s">
-        <v>9</v>
-      </c>
-      <c r="J112" t="s">
-        <v>10</v>
-      </c>
-      <c r="K112" t="s">
-        <v>11</v>
-      </c>
-      <c r="L112" t="s">
-        <v>12</v>
-      </c>
-      <c r="M112" t="s">
-        <v>13</v>
-      </c>
-      <c r="N112" t="s">
-        <v>14</v>
-      </c>
-      <c r="O112" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C112">
+        <v>87467.437300000005</v>
+      </c>
+      <c r="D112">
+        <v>5499.1171000000004</v>
+      </c>
+      <c r="E112">
+        <v>87429</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>50</v>
-      </c>
-      <c r="C113">
-        <v>120000</v>
-      </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
-      <c r="E113">
-        <v>500</v>
-      </c>
-      <c r="F113">
-        <v>10000</v>
-      </c>
-      <c r="G113">
-        <v>10000</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
-      </c>
-      <c r="I113">
-        <v>20</v>
-      </c>
-      <c r="J113">
-        <v>40</v>
-      </c>
-      <c r="K113">
-        <v>60</v>
-      </c>
-      <c r="L113" t="s">
-        <v>16</v>
-      </c>
-      <c r="M113">
-        <v>10</v>
-      </c>
-      <c r="N113">
-        <v>10000</v>
-      </c>
-      <c r="O113" t="s">
-        <v>17</v>
+      <c r="A113" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" t="s">
+        <v>9</v>
+      </c>
+      <c r="J114" t="s">
+        <v>10</v>
+      </c>
+      <c r="K114" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" t="s">
+        <v>12</v>
+      </c>
+      <c r="M114" t="s">
+        <v>13</v>
+      </c>
+      <c r="N114" t="s">
+        <v>14</v>
+      </c>
+      <c r="O114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>120000</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+      <c r="E115">
+        <v>500</v>
+      </c>
+      <c r="F115">
+        <v>10000</v>
+      </c>
+      <c r="G115">
+        <v>10000</v>
+      </c>
+      <c r="H115">
+        <v>30</v>
+      </c>
+      <c r="I115">
+        <v>20</v>
+      </c>
+      <c r="J115">
+        <v>40</v>
+      </c>
+      <c r="K115">
+        <v>60</v>
+      </c>
+      <c r="L115" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115">
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>10000</v>
+      </c>
+      <c r="O115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>15</v>
-      </c>
-      <c r="B116">
-        <v>52.987200000000001</v>
-      </c>
-      <c r="C116">
-        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" t="s">
-        <v>30</v>
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>52.987200000000001</v>
       </c>
       <c r="C118">
-        <v>179667.9339</v>
-      </c>
-      <c r="D118">
-        <v>1295.9637</v>
-      </c>
-      <c r="E118">
-        <v>179565</v>
-      </c>
-      <c r="F118">
-        <v>1020435</v>
-      </c>
-      <c r="G118">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119">
-        <v>840420.70120000001</v>
-      </c>
-      <c r="D119">
-        <v>5491.9206000000004</v>
-      </c>
-      <c r="E119">
-        <v>840696</v>
-      </c>
-      <c r="F119">
-        <v>179739</v>
-      </c>
-      <c r="G119">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C120">
-        <v>179670.3383</v>
+        <v>179667.9339</v>
       </c>
       <c r="D120">
-        <v>6049.8787000000002</v>
+        <v>1295.9637</v>
       </c>
       <c r="E120">
-        <v>179739</v>
+        <v>179565</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1020435</v>
       </c>
       <c r="G120">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121">
+        <v>840420.70120000001</v>
+      </c>
+      <c r="D121">
+        <v>5491.9206000000004</v>
+      </c>
+      <c r="E121">
+        <v>840696</v>
+      </c>
+      <c r="F121">
+        <v>179739</v>
+      </c>
+      <c r="G121">
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" t="s">
-        <v>9</v>
-      </c>
-      <c r="J122" t="s">
-        <v>10</v>
-      </c>
-      <c r="K122" t="s">
-        <v>11</v>
-      </c>
-      <c r="L122" t="s">
-        <v>12</v>
-      </c>
-      <c r="M122" t="s">
-        <v>13</v>
-      </c>
-      <c r="N122" t="s">
-        <v>14</v>
-      </c>
-      <c r="O122" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>179670.3383</v>
+      </c>
+      <c r="D122">
+        <v>6049.8787000000002</v>
+      </c>
+      <c r="E122">
+        <v>179739</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="B123">
-        <v>50</v>
-      </c>
-      <c r="C123">
-        <v>120000</v>
-      </c>
-      <c r="D123">
-        <v>100</v>
-      </c>
-      <c r="E123">
-        <v>500</v>
-      </c>
-      <c r="F123">
-        <v>10000</v>
-      </c>
-      <c r="G123">
-        <v>10000</v>
-      </c>
-      <c r="H123">
-        <v>30</v>
-      </c>
-      <c r="I123">
-        <v>20</v>
-      </c>
-      <c r="J123">
-        <v>40</v>
-      </c>
-      <c r="K123">
-        <v>65</v>
-      </c>
-      <c r="L123" t="s">
-        <v>16</v>
-      </c>
-      <c r="M123">
-        <v>10</v>
-      </c>
-      <c r="N123">
-        <v>10000</v>
-      </c>
-      <c r="O123" t="s">
-        <v>17</v>
+      <c r="A123" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" t="s">
+        <v>9</v>
+      </c>
+      <c r="J124" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124" t="s">
+        <v>14</v>
+      </c>
+      <c r="O124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>120000</v>
+      </c>
+      <c r="D125">
+        <v>100</v>
+      </c>
+      <c r="E125">
+        <v>500</v>
+      </c>
+      <c r="F125">
+        <v>10000</v>
+      </c>
+      <c r="G125">
+        <v>10000</v>
+      </c>
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125">
+        <v>20</v>
+      </c>
+      <c r="J125">
+        <v>40</v>
+      </c>
+      <c r="K125">
+        <v>65</v>
+      </c>
+      <c r="L125" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125">
+        <v>10</v>
+      </c>
+      <c r="N125">
+        <v>10000</v>
+      </c>
+      <c r="O125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>19</v>
-      </c>
-      <c r="B125" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>15</v>
-      </c>
-      <c r="B126">
-        <v>55.552300000000002</v>
-      </c>
-      <c r="C126">
-        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>29</v>
-      </c>
-      <c r="B128" t="s">
-        <v>30</v>
+      <c r="A128">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>55.552300000000002</v>
       </c>
       <c r="C128">
-        <v>184775.49900000001</v>
-      </c>
-      <c r="D128">
-        <v>1394.6398999999999</v>
-      </c>
-      <c r="E128">
-        <v>184664</v>
-      </c>
-      <c r="F128">
-        <v>1015336</v>
-      </c>
-      <c r="G128">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
-      </c>
-      <c r="C129">
-        <v>755824.88130000001</v>
-      </c>
-      <c r="D129">
-        <v>5705.9562999999998</v>
-      </c>
-      <c r="E129">
-        <v>756070</v>
-      </c>
-      <c r="F129">
-        <v>259266</v>
-      </c>
-      <c r="G129">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C130">
-        <v>259157.99369999999</v>
+        <v>184775.49900000001</v>
       </c>
       <c r="D130">
-        <v>6626.7055</v>
+        <v>1394.6398999999999</v>
       </c>
       <c r="E130">
-        <v>259266</v>
+        <v>184664</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1015336</v>
       </c>
       <c r="G130">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131">
+        <v>755824.88130000001</v>
+      </c>
+      <c r="D131">
+        <v>5705.9562999999998</v>
+      </c>
+      <c r="E131">
+        <v>756070</v>
+      </c>
+      <c r="F131">
+        <v>259266</v>
+      </c>
+      <c r="G131">
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" t="s">
-        <v>9</v>
-      </c>
-      <c r="J132" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" t="s">
-        <v>11</v>
-      </c>
-      <c r="L132" t="s">
-        <v>12</v>
-      </c>
-      <c r="M132" t="s">
-        <v>13</v>
-      </c>
-      <c r="N132" t="s">
-        <v>14</v>
-      </c>
-      <c r="O132" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C132">
+        <v>259157.99369999999</v>
+      </c>
+      <c r="D132">
+        <v>6626.7055</v>
+      </c>
+      <c r="E132">
+        <v>259266</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>50</v>
-      </c>
-      <c r="C133">
-        <v>120000</v>
-      </c>
-      <c r="D133">
-        <v>100</v>
-      </c>
-      <c r="E133">
-        <v>500</v>
-      </c>
-      <c r="F133">
-        <v>10000</v>
-      </c>
-      <c r="G133">
-        <v>10000</v>
-      </c>
-      <c r="H133">
-        <v>30</v>
-      </c>
-      <c r="I133">
-        <v>20</v>
-      </c>
-      <c r="J133">
-        <v>40</v>
-      </c>
-      <c r="K133">
-        <v>70</v>
-      </c>
-      <c r="L133" t="s">
-        <v>16</v>
-      </c>
-      <c r="M133">
-        <v>10</v>
-      </c>
-      <c r="N133">
-        <v>10000</v>
-      </c>
-      <c r="O133" t="s">
-        <v>17</v>
+      <c r="A133" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" t="s">
+        <v>9</v>
+      </c>
+      <c r="J134" t="s">
+        <v>10</v>
+      </c>
+      <c r="K134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" t="s">
+        <v>12</v>
+      </c>
+      <c r="M134" t="s">
+        <v>13</v>
+      </c>
+      <c r="N134" t="s">
+        <v>14</v>
+      </c>
+      <c r="O134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>120000</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="E135">
+        <v>500</v>
+      </c>
+      <c r="F135">
+        <v>10000</v>
+      </c>
+      <c r="G135">
+        <v>10000</v>
+      </c>
+      <c r="H135">
+        <v>30</v>
+      </c>
+      <c r="I135">
+        <v>20</v>
+      </c>
+      <c r="J135">
+        <v>40</v>
+      </c>
+      <c r="K135">
+        <v>70</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135">
+        <v>10</v>
+      </c>
+      <c r="N135">
+        <v>10000</v>
+      </c>
+      <c r="O135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>15</v>
-      </c>
-      <c r="B136">
-        <v>58.02</v>
-      </c>
-      <c r="C136">
-        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" t="s">
-        <v>26</v>
-      </c>
-      <c r="F137" t="s">
-        <v>27</v>
-      </c>
-      <c r="G137" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>29</v>
-      </c>
-      <c r="B138" t="s">
-        <v>30</v>
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>58.02</v>
       </c>
       <c r="C138">
-        <v>171550.97750000001</v>
-      </c>
-      <c r="D138">
-        <v>1360.8895</v>
-      </c>
-      <c r="E138">
-        <v>171690</v>
-      </c>
-      <c r="F138">
-        <v>1028310</v>
-      </c>
-      <c r="G138">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
-      </c>
-      <c r="C139">
-        <v>701575.85210000002</v>
-      </c>
-      <c r="D139">
-        <v>5785.89</v>
-      </c>
-      <c r="E139">
-        <v>701527</v>
-      </c>
-      <c r="F139">
-        <v>326783</v>
-      </c>
-      <c r="G139">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C140">
-        <v>326633.29810000001</v>
+        <v>171550.97750000001</v>
       </c>
       <c r="D140">
-        <v>7088.8469999999998</v>
+        <v>1360.8895</v>
       </c>
       <c r="E140">
-        <v>326783</v>
+        <v>171690</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1028310</v>
       </c>
       <c r="G140">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B141" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141">
+        <v>701575.85210000002</v>
+      </c>
+      <c r="D141">
+        <v>5785.89</v>
+      </c>
+      <c r="E141">
+        <v>701527</v>
+      </c>
+      <c r="F141">
+        <v>326783</v>
+      </c>
+      <c r="G141">
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" t="s">
-        <v>9</v>
-      </c>
-      <c r="J142" t="s">
-        <v>10</v>
-      </c>
-      <c r="K142" t="s">
-        <v>11</v>
-      </c>
-      <c r="L142" t="s">
-        <v>12</v>
-      </c>
-      <c r="M142" t="s">
-        <v>13</v>
-      </c>
-      <c r="N142" t="s">
-        <v>14</v>
-      </c>
-      <c r="O142" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C142">
+        <v>326633.29810000001</v>
+      </c>
+      <c r="D142">
+        <v>7088.8469999999998</v>
+      </c>
+      <c r="E142">
+        <v>326783</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>50</v>
-      </c>
-      <c r="C143">
-        <v>120000</v>
-      </c>
-      <c r="D143">
-        <v>100</v>
-      </c>
-      <c r="E143">
-        <v>500</v>
-      </c>
-      <c r="F143">
-        <v>10000</v>
-      </c>
-      <c r="G143">
-        <v>10000</v>
-      </c>
-      <c r="H143">
-        <v>30</v>
-      </c>
-      <c r="I143">
-        <v>20</v>
-      </c>
-      <c r="J143">
-        <v>40</v>
-      </c>
-      <c r="K143">
-        <v>75</v>
-      </c>
-      <c r="L143" t="s">
-        <v>16</v>
-      </c>
-      <c r="M143">
-        <v>10</v>
-      </c>
-      <c r="N143">
-        <v>10000</v>
-      </c>
-      <c r="O143" t="s">
-        <v>17</v>
+      <c r="A143" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" t="s">
+        <v>9</v>
+      </c>
+      <c r="J144" t="s">
+        <v>10</v>
+      </c>
+      <c r="K144" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" t="s">
+        <v>12</v>
+      </c>
+      <c r="M144" t="s">
+        <v>13</v>
+      </c>
+      <c r="N144" t="s">
+        <v>14</v>
+      </c>
+      <c r="O144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+      <c r="C145">
+        <v>120000</v>
+      </c>
+      <c r="D145">
+        <v>100</v>
+      </c>
+      <c r="E145">
+        <v>500</v>
+      </c>
+      <c r="F145">
+        <v>10000</v>
+      </c>
+      <c r="G145">
+        <v>10000</v>
+      </c>
+      <c r="H145">
+        <v>30</v>
+      </c>
+      <c r="I145">
+        <v>20</v>
+      </c>
+      <c r="J145">
+        <v>40</v>
+      </c>
+      <c r="K145">
+        <v>75</v>
+      </c>
+      <c r="L145" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145">
+        <v>10</v>
+      </c>
+      <c r="N145">
+        <v>10000</v>
+      </c>
+      <c r="O145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>15</v>
-      </c>
-      <c r="B146">
-        <v>61.209299999999999</v>
-      </c>
-      <c r="C146">
-        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>29</v>
-      </c>
-      <c r="B148" t="s">
-        <v>30</v>
+      <c r="A148">
+        <v>15</v>
+      </c>
+      <c r="B148">
+        <v>61.209299999999999</v>
       </c>
       <c r="C148">
-        <v>159720.91399999999</v>
-      </c>
-      <c r="D148">
-        <v>1405.9141</v>
-      </c>
-      <c r="E148">
-        <v>159774</v>
-      </c>
-      <c r="F148">
-        <v>1040226</v>
-      </c>
-      <c r="G148">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
-      </c>
-      <c r="C149">
-        <v>623749.78319999995</v>
-      </c>
-      <c r="D149">
-        <v>5740.9543999999996</v>
-      </c>
-      <c r="E149">
-        <v>623864</v>
-      </c>
-      <c r="F149">
-        <v>416362</v>
-      </c>
-      <c r="G149">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C150">
-        <v>416288.85769999999</v>
+        <v>159720.91399999999</v>
       </c>
       <c r="D150">
-        <v>7651.6211999999996</v>
+        <v>1405.9141</v>
       </c>
       <c r="E150">
-        <v>416362</v>
+        <v>159774</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1040226</v>
       </c>
       <c r="G150">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B151" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151">
+        <v>623749.78319999995</v>
+      </c>
+      <c r="D151">
+        <v>5740.9543999999996</v>
+      </c>
+      <c r="E151">
+        <v>623864</v>
+      </c>
+      <c r="F151">
+        <v>416362</v>
+      </c>
+      <c r="G151">
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" t="s">
-        <v>7</v>
-      </c>
-      <c r="H152" t="s">
-        <v>8</v>
-      </c>
-      <c r="I152" t="s">
-        <v>9</v>
-      </c>
-      <c r="J152" t="s">
-        <v>10</v>
-      </c>
-      <c r="K152" t="s">
-        <v>11</v>
-      </c>
-      <c r="L152" t="s">
-        <v>12</v>
-      </c>
-      <c r="M152" t="s">
-        <v>13</v>
-      </c>
-      <c r="N152" t="s">
-        <v>14</v>
-      </c>
-      <c r="O152" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C152">
+        <v>416288.85769999999</v>
+      </c>
+      <c r="D152">
+        <v>7651.6211999999996</v>
+      </c>
+      <c r="E152">
+        <v>416362</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>50</v>
-      </c>
-      <c r="C153">
-        <v>120000</v>
-      </c>
-      <c r="D153">
-        <v>100</v>
-      </c>
-      <c r="E153">
-        <v>500</v>
-      </c>
-      <c r="F153">
-        <v>10000</v>
-      </c>
-      <c r="G153">
-        <v>10000</v>
-      </c>
-      <c r="H153">
-        <v>30</v>
-      </c>
-      <c r="I153">
-        <v>20</v>
-      </c>
-      <c r="J153">
-        <v>40</v>
-      </c>
-      <c r="K153">
-        <v>80</v>
-      </c>
-      <c r="L153" t="s">
-        <v>16</v>
-      </c>
-      <c r="M153">
-        <v>10</v>
-      </c>
-      <c r="N153">
-        <v>10000</v>
-      </c>
-      <c r="O153" t="s">
-        <v>17</v>
+      <c r="A153" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" t="s">
+        <v>9</v>
+      </c>
+      <c r="J154" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" t="s">
+        <v>11</v>
+      </c>
+      <c r="L154" t="s">
+        <v>12</v>
+      </c>
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+      <c r="N154" t="s">
+        <v>14</v>
+      </c>
+      <c r="O154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>120000</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+      <c r="E155">
+        <v>500</v>
+      </c>
+      <c r="F155">
+        <v>10000</v>
+      </c>
+      <c r="G155">
+        <v>10000</v>
+      </c>
+      <c r="H155">
+        <v>30</v>
+      </c>
+      <c r="I155">
+        <v>20</v>
+      </c>
+      <c r="J155">
+        <v>40</v>
+      </c>
+      <c r="K155">
+        <v>80</v>
+      </c>
+      <c r="L155" t="s">
+        <v>16</v>
+      </c>
+      <c r="M155">
+        <v>10</v>
+      </c>
+      <c r="N155">
+        <v>10000</v>
+      </c>
+      <c r="O155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>15</v>
-      </c>
-      <c r="B156">
-        <v>63.015300000000003</v>
-      </c>
-      <c r="C156">
-        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" t="s">
-        <v>25</v>
-      </c>
-      <c r="E157" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" t="s">
-        <v>27</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>29</v>
-      </c>
-      <c r="B158" t="s">
-        <v>30</v>
+      <c r="A158">
+        <v>15</v>
+      </c>
+      <c r="B158">
+        <v>63.015300000000003</v>
       </c>
       <c r="C158">
-        <v>149403.41339999999</v>
-      </c>
-      <c r="D158">
-        <v>1327.0060000000001</v>
-      </c>
-      <c r="E158">
-        <v>149451</v>
-      </c>
-      <c r="F158">
-        <v>1050549</v>
-      </c>
-      <c r="G158">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159">
-        <v>584990.54920000001</v>
-      </c>
-      <c r="D159">
-        <v>5820.8752999999997</v>
-      </c>
-      <c r="E159">
-        <v>585063</v>
-      </c>
-      <c r="F159">
-        <v>465486</v>
-      </c>
-      <c r="G159">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>26</v>
+      </c>
+      <c r="F159" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C160">
-        <v>465364.96309999999</v>
+        <v>149403.41339999999</v>
       </c>
       <c r="D160">
-        <v>8149.2492000000002</v>
+        <v>1327.0060000000001</v>
       </c>
       <c r="E160">
-        <v>465486</v>
+        <v>149451</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1050549</v>
       </c>
       <c r="G160">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161">
+        <v>584990.54920000001</v>
+      </c>
+      <c r="D161">
+        <v>5820.8752999999997</v>
+      </c>
+      <c r="E161">
+        <v>585063</v>
+      </c>
+      <c r="F161">
+        <v>465486</v>
+      </c>
+      <c r="G161">
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" t="s">
-        <v>8</v>
-      </c>
-      <c r="I162" t="s">
-        <v>9</v>
-      </c>
-      <c r="J162" t="s">
-        <v>10</v>
-      </c>
-      <c r="K162" t="s">
-        <v>11</v>
-      </c>
-      <c r="L162" t="s">
-        <v>12</v>
-      </c>
-      <c r="M162" t="s">
-        <v>13</v>
-      </c>
-      <c r="N162" t="s">
-        <v>14</v>
-      </c>
-      <c r="O162" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C162">
+        <v>465364.96309999999</v>
+      </c>
+      <c r="D162">
+        <v>8149.2492000000002</v>
+      </c>
+      <c r="E162">
+        <v>465486</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>0</v>
-      </c>
-      <c r="B163">
-        <v>50</v>
-      </c>
-      <c r="C163">
-        <v>120000</v>
-      </c>
-      <c r="D163">
-        <v>100</v>
-      </c>
-      <c r="E163">
-        <v>500</v>
-      </c>
-      <c r="F163">
-        <v>10000</v>
-      </c>
-      <c r="G163">
-        <v>10000</v>
-      </c>
-      <c r="H163">
-        <v>30</v>
-      </c>
-      <c r="I163">
-        <v>20</v>
-      </c>
-      <c r="J163">
-        <v>40</v>
-      </c>
-      <c r="K163">
-        <v>85</v>
-      </c>
-      <c r="L163" t="s">
-        <v>16</v>
-      </c>
-      <c r="M163">
-        <v>10</v>
-      </c>
-      <c r="N163">
-        <v>10000</v>
-      </c>
-      <c r="O163" t="s">
-        <v>17</v>
+      <c r="A163" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" t="s">
+        <v>9</v>
+      </c>
+      <c r="J164" t="s">
+        <v>10</v>
+      </c>
+      <c r="K164" t="s">
+        <v>11</v>
+      </c>
+      <c r="L164" t="s">
+        <v>12</v>
+      </c>
+      <c r="M164" t="s">
+        <v>13</v>
+      </c>
+      <c r="N164" t="s">
+        <v>14</v>
+      </c>
+      <c r="O164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>120000</v>
+      </c>
+      <c r="D165">
+        <v>100</v>
+      </c>
+      <c r="E165">
+        <v>500</v>
+      </c>
+      <c r="F165">
+        <v>10000</v>
+      </c>
+      <c r="G165">
+        <v>10000</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165">
+        <v>20</v>
+      </c>
+      <c r="J165">
+        <v>40</v>
+      </c>
+      <c r="K165">
+        <v>85</v>
+      </c>
+      <c r="L165" t="s">
+        <v>16</v>
+      </c>
+      <c r="M165">
+        <v>10</v>
+      </c>
+      <c r="N165">
+        <v>10000</v>
+      </c>
+      <c r="O165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" t="s">
-        <v>20</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>15</v>
-      </c>
-      <c r="B166">
-        <v>64.589799999999997</v>
-      </c>
-      <c r="C166">
-        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
-      </c>
-      <c r="D167" t="s">
-        <v>25</v>
-      </c>
-      <c r="E167" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" t="s">
-        <v>27</v>
-      </c>
-      <c r="G167" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>29</v>
-      </c>
-      <c r="B168" t="s">
-        <v>30</v>
+      <c r="A168">
+        <v>15</v>
+      </c>
+      <c r="B168">
+        <v>64.589799999999997</v>
       </c>
       <c r="C168">
-        <v>140864.8904</v>
-      </c>
-      <c r="D168">
-        <v>1420.5915</v>
-      </c>
-      <c r="E168">
-        <v>140736</v>
-      </c>
-      <c r="F168">
-        <v>1059264</v>
-      </c>
-      <c r="G168">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
-      </c>
-      <c r="C169">
-        <v>550526.20050000004</v>
-      </c>
-      <c r="D169">
-        <v>5951.4264000000003</v>
-      </c>
-      <c r="E169">
-        <v>550835</v>
-      </c>
-      <c r="F169">
-        <v>508429</v>
-      </c>
-      <c r="G169">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B170" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C170">
-        <v>508368.47169999999</v>
+        <v>140864.8904</v>
       </c>
       <c r="D170">
-        <v>8684.2160999999996</v>
+        <v>1420.5915</v>
       </c>
       <c r="E170">
-        <v>508429</v>
+        <v>140736</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1059264</v>
       </c>
       <c r="G170">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B171" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171">
+        <v>550526.20050000004</v>
+      </c>
+      <c r="D171">
+        <v>5951.4264000000003</v>
+      </c>
+      <c r="E171">
+        <v>550835</v>
+      </c>
+      <c r="F171">
+        <v>508429</v>
+      </c>
+      <c r="G171">
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
-      </c>
-      <c r="C172" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" t="s">
-        <v>4</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" t="s">
-        <v>7</v>
-      </c>
-      <c r="H172" t="s">
-        <v>8</v>
-      </c>
-      <c r="I172" t="s">
-        <v>9</v>
-      </c>
-      <c r="J172" t="s">
-        <v>10</v>
-      </c>
-      <c r="K172" t="s">
-        <v>11</v>
-      </c>
-      <c r="L172" t="s">
-        <v>12</v>
-      </c>
-      <c r="M172" t="s">
-        <v>13</v>
-      </c>
-      <c r="N172" t="s">
-        <v>14</v>
-      </c>
-      <c r="O172" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C172">
+        <v>508368.47169999999</v>
+      </c>
+      <c r="D172">
+        <v>8684.2160999999996</v>
+      </c>
+      <c r="E172">
+        <v>508429</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>0</v>
-      </c>
-      <c r="B173">
-        <v>50</v>
-      </c>
-      <c r="C173">
-        <v>120000</v>
-      </c>
-      <c r="D173">
-        <v>100</v>
-      </c>
-      <c r="E173">
-        <v>500</v>
-      </c>
-      <c r="F173">
-        <v>10000</v>
-      </c>
-      <c r="G173">
-        <v>10000</v>
-      </c>
-      <c r="H173">
-        <v>30</v>
-      </c>
-      <c r="I173">
-        <v>20</v>
-      </c>
-      <c r="J173">
-        <v>40</v>
-      </c>
-      <c r="K173">
-        <v>90</v>
-      </c>
-      <c r="L173" t="s">
-        <v>16</v>
-      </c>
-      <c r="M173">
-        <v>10</v>
-      </c>
-      <c r="N173">
-        <v>10000</v>
-      </c>
-      <c r="O173" t="s">
-        <v>17</v>
+      <c r="A173" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" t="s">
+        <v>8</v>
+      </c>
+      <c r="I174" t="s">
+        <v>9</v>
+      </c>
+      <c r="J174" t="s">
+        <v>10</v>
+      </c>
+      <c r="K174" t="s">
+        <v>11</v>
+      </c>
+      <c r="L174" t="s">
+        <v>12</v>
+      </c>
+      <c r="M174" t="s">
+        <v>13</v>
+      </c>
+      <c r="N174" t="s">
+        <v>14</v>
+      </c>
+      <c r="O174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>50</v>
+      </c>
+      <c r="C175">
+        <v>120000</v>
+      </c>
+      <c r="D175">
+        <v>100</v>
+      </c>
+      <c r="E175">
+        <v>500</v>
+      </c>
+      <c r="F175">
+        <v>10000</v>
+      </c>
+      <c r="G175">
+        <v>10000</v>
+      </c>
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="I175">
+        <v>20</v>
+      </c>
+      <c r="J175">
+        <v>40</v>
+      </c>
+      <c r="K175">
+        <v>90</v>
+      </c>
+      <c r="L175" t="s">
+        <v>16</v>
+      </c>
+      <c r="M175">
+        <v>10</v>
+      </c>
+      <c r="N175">
+        <v>10000</v>
+      </c>
+      <c r="O175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>19</v>
-      </c>
-      <c r="B175" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>15</v>
-      </c>
-      <c r="B176">
-        <v>66.008700000000005</v>
-      </c>
-      <c r="C176">
-        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
-      </c>
-      <c r="D177" t="s">
-        <v>25</v>
-      </c>
-      <c r="E177" t="s">
-        <v>26</v>
-      </c>
-      <c r="F177" t="s">
-        <v>27</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>29</v>
-      </c>
-      <c r="B178" t="s">
-        <v>30</v>
+      <c r="A178">
+        <v>15</v>
+      </c>
+      <c r="B178">
+        <v>66.008700000000005</v>
       </c>
       <c r="C178">
-        <v>133138.09849999999</v>
-      </c>
-      <c r="D178">
-        <v>1399.1421</v>
-      </c>
-      <c r="E178">
-        <v>133282</v>
-      </c>
-      <c r="F178">
-        <v>1066718</v>
-      </c>
-      <c r="G178">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
-      </c>
-      <c r="C179">
-        <v>519429.788</v>
-      </c>
-      <c r="D179">
-        <v>5995.0726999999997</v>
-      </c>
-      <c r="E179">
-        <v>519391</v>
-      </c>
-      <c r="F179">
-        <v>547327</v>
-      </c>
-      <c r="G179">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" t="s">
+        <v>26</v>
+      </c>
+      <c r="F179" t="s">
+        <v>27</v>
+      </c>
+      <c r="G179" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C180">
-        <v>547193.14679999999</v>
+        <v>133138.09849999999</v>
       </c>
       <c r="D180">
-        <v>9160.5244000000002</v>
+        <v>1399.1421</v>
       </c>
       <c r="E180">
-        <v>547327</v>
+        <v>133282</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1066718</v>
       </c>
       <c r="G180">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181">
+        <v>519429.788</v>
+      </c>
+      <c r="D181">
+        <v>5995.0726999999997</v>
+      </c>
+      <c r="E181">
+        <v>519391</v>
+      </c>
+      <c r="F181">
+        <v>547327</v>
+      </c>
+      <c r="G181">
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
-      </c>
-      <c r="C182" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" t="s">
-        <v>6</v>
-      </c>
-      <c r="G182" t="s">
-        <v>7</v>
-      </c>
-      <c r="H182" t="s">
-        <v>8</v>
-      </c>
-      <c r="I182" t="s">
-        <v>9</v>
-      </c>
-      <c r="J182" t="s">
-        <v>10</v>
-      </c>
-      <c r="K182" t="s">
-        <v>11</v>
-      </c>
-      <c r="L182" t="s">
-        <v>12</v>
-      </c>
-      <c r="M182" t="s">
-        <v>13</v>
-      </c>
-      <c r="N182" t="s">
-        <v>14</v>
-      </c>
-      <c r="O182" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C182">
+        <v>547193.14679999999</v>
+      </c>
+      <c r="D182">
+        <v>9160.5244000000002</v>
+      </c>
+      <c r="E182">
+        <v>547327</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>0</v>
-      </c>
-      <c r="B183">
-        <v>50</v>
-      </c>
-      <c r="C183">
-        <v>120000</v>
-      </c>
-      <c r="D183">
-        <v>100</v>
-      </c>
-      <c r="E183">
-        <v>500</v>
-      </c>
-      <c r="F183">
-        <v>10000</v>
-      </c>
-      <c r="G183">
-        <v>10000</v>
-      </c>
-      <c r="H183">
-        <v>30</v>
-      </c>
-      <c r="I183">
-        <v>20</v>
-      </c>
-      <c r="J183">
-        <v>40</v>
-      </c>
-      <c r="K183">
-        <v>95</v>
-      </c>
-      <c r="L183" t="s">
-        <v>16</v>
-      </c>
-      <c r="M183">
-        <v>10</v>
-      </c>
-      <c r="N183">
-        <v>10000</v>
-      </c>
-      <c r="O183" t="s">
-        <v>17</v>
+      <c r="A183" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" t="s">
+        <v>9</v>
+      </c>
+      <c r="J184" t="s">
+        <v>10</v>
+      </c>
+      <c r="K184" t="s">
+        <v>11</v>
+      </c>
+      <c r="L184" t="s">
+        <v>12</v>
+      </c>
+      <c r="M184" t="s">
+        <v>13</v>
+      </c>
+      <c r="N184" t="s">
+        <v>14</v>
+      </c>
+      <c r="O184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>50</v>
+      </c>
+      <c r="C185">
+        <v>120000</v>
+      </c>
+      <c r="D185">
+        <v>100</v>
+      </c>
+      <c r="E185">
+        <v>500</v>
+      </c>
+      <c r="F185">
+        <v>10000</v>
+      </c>
+      <c r="G185">
+        <v>10000</v>
+      </c>
+      <c r="H185">
+        <v>30</v>
+      </c>
+      <c r="I185">
+        <v>20</v>
+      </c>
+      <c r="J185">
+        <v>40</v>
+      </c>
+      <c r="K185">
+        <v>95</v>
+      </c>
+      <c r="L185" t="s">
+        <v>16</v>
+      </c>
+      <c r="M185">
+        <v>10</v>
+      </c>
+      <c r="N185">
+        <v>10000</v>
+      </c>
+      <c r="O185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>19</v>
-      </c>
-      <c r="B185" t="s">
-        <v>20</v>
-      </c>
-      <c r="C185" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>15</v>
-      </c>
-      <c r="B186">
-        <v>67.469300000000004</v>
-      </c>
-      <c r="C186">
-        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
-      </c>
-      <c r="D187" t="s">
-        <v>25</v>
-      </c>
-      <c r="E187" t="s">
-        <v>26</v>
-      </c>
-      <c r="F187" t="s">
-        <v>27</v>
-      </c>
-      <c r="G187" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>29</v>
-      </c>
-      <c r="B188" t="s">
-        <v>30</v>
+      <c r="A188">
+        <v>15</v>
+      </c>
+      <c r="B188">
+        <v>67.469300000000004</v>
       </c>
       <c r="C188">
-        <v>114034.3336</v>
-      </c>
-      <c r="D188">
-        <v>1237.3969999999999</v>
-      </c>
-      <c r="E188">
-        <v>114061</v>
-      </c>
-      <c r="F188">
-        <v>1085939</v>
-      </c>
-      <c r="G188">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
-      </c>
-      <c r="C189">
-        <v>504349.85399999999</v>
-      </c>
-      <c r="D189">
-        <v>6069.4710999999998</v>
-      </c>
-      <c r="E189">
-        <v>504508</v>
-      </c>
-      <c r="F189">
-        <v>581431</v>
-      </c>
-      <c r="G189">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>25</v>
+      </c>
+      <c r="E189" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B190" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C190">
-        <v>581377.34790000005</v>
+        <v>114034.3336</v>
       </c>
       <c r="D190">
-        <v>9710.7749000000003</v>
+        <v>1237.3969999999999</v>
       </c>
       <c r="E190">
-        <v>581431</v>
+        <v>114061</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1085939</v>
       </c>
       <c r="G190">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B191" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191">
+        <v>504349.85399999999</v>
+      </c>
+      <c r="D191">
+        <v>6069.4710999999998</v>
+      </c>
+      <c r="E191">
+        <v>504508</v>
+      </c>
+      <c r="F191">
+        <v>581431</v>
+      </c>
+      <c r="G191">
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
-      </c>
-      <c r="C192" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" t="s">
-        <v>7</v>
-      </c>
-      <c r="H192" t="s">
-        <v>8</v>
-      </c>
-      <c r="I192" t="s">
-        <v>9</v>
-      </c>
-      <c r="J192" t="s">
-        <v>10</v>
-      </c>
-      <c r="K192" t="s">
-        <v>11</v>
-      </c>
-      <c r="L192" t="s">
-        <v>12</v>
-      </c>
-      <c r="M192" t="s">
-        <v>13</v>
-      </c>
-      <c r="N192" t="s">
-        <v>14</v>
-      </c>
-      <c r="O192" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C192">
+        <v>581377.34790000005</v>
+      </c>
+      <c r="D192">
+        <v>9710.7749000000003</v>
+      </c>
+      <c r="E192">
+        <v>581431</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>95</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>0</v>
-      </c>
-      <c r="B193">
-        <v>50</v>
-      </c>
-      <c r="C193">
-        <v>120000</v>
-      </c>
-      <c r="D193">
-        <v>100</v>
-      </c>
-      <c r="E193">
-        <v>500</v>
-      </c>
-      <c r="F193">
-        <v>10000</v>
-      </c>
-      <c r="G193">
-        <v>10000</v>
-      </c>
-      <c r="H193">
-        <v>30</v>
-      </c>
-      <c r="I193">
-        <v>20</v>
-      </c>
-      <c r="J193">
-        <v>40</v>
-      </c>
-      <c r="K193">
-        <v>100</v>
-      </c>
-      <c r="L193" t="s">
-        <v>16</v>
-      </c>
-      <c r="M193">
-        <v>10</v>
-      </c>
-      <c r="N193">
-        <v>10000</v>
-      </c>
-      <c r="O193" t="s">
-        <v>17</v>
+      <c r="A193" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" t="s">
+        <v>7</v>
+      </c>
+      <c r="H194" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" t="s">
+        <v>9</v>
+      </c>
+      <c r="J194" t="s">
+        <v>10</v>
+      </c>
+      <c r="K194" t="s">
+        <v>11</v>
+      </c>
+      <c r="L194" t="s">
+        <v>12</v>
+      </c>
+      <c r="M194" t="s">
+        <v>13</v>
+      </c>
+      <c r="N194" t="s">
+        <v>14</v>
+      </c>
+      <c r="O194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>50</v>
+      </c>
+      <c r="C195">
+        <v>120000</v>
+      </c>
+      <c r="D195">
+        <v>100</v>
+      </c>
+      <c r="E195">
+        <v>500</v>
+      </c>
+      <c r="F195">
+        <v>10000</v>
+      </c>
+      <c r="G195">
+        <v>10000</v>
+      </c>
+      <c r="H195">
+        <v>30</v>
+      </c>
+      <c r="I195">
+        <v>20</v>
+      </c>
+      <c r="J195">
+        <v>40</v>
+      </c>
+      <c r="K195">
+        <v>100</v>
+      </c>
+      <c r="L195" t="s">
+        <v>16</v>
+      </c>
+      <c r="M195">
+        <v>10</v>
+      </c>
+      <c r="N195">
+        <v>10000</v>
+      </c>
+      <c r="O195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>19</v>
-      </c>
-      <c r="B195" t="s">
-        <v>20</v>
-      </c>
-      <c r="C195" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>15</v>
-      </c>
-      <c r="B196">
-        <v>68.407799999999995</v>
-      </c>
-      <c r="C196">
-        <v>135</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
-      </c>
-      <c r="D197" t="s">
-        <v>25</v>
-      </c>
-      <c r="E197" t="s">
-        <v>26</v>
-      </c>
-      <c r="F197" t="s">
-        <v>27</v>
-      </c>
-      <c r="G197" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>29</v>
-      </c>
-      <c r="B198" t="s">
-        <v>30</v>
+      <c r="A198">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>68.407799999999995</v>
       </c>
       <c r="C198">
-        <v>119973.22990000001</v>
-      </c>
-      <c r="D198">
-        <v>1411.0192999999999</v>
-      </c>
-      <c r="E198">
-        <v>119893</v>
-      </c>
-      <c r="F198">
-        <v>1080107</v>
-      </c>
-      <c r="G198">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
-      </c>
-      <c r="C199">
-        <v>467441.08370000002</v>
-      </c>
-      <c r="D199">
-        <v>6153.7089999999998</v>
-      </c>
-      <c r="E199">
-        <v>467694</v>
-      </c>
-      <c r="F199">
-        <v>612413</v>
-      </c>
-      <c r="G199">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199" t="s">
+        <v>26</v>
+      </c>
+      <c r="F199" t="s">
+        <v>27</v>
+      </c>
+      <c r="G199" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>29</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200">
+        <v>119973.22990000001</v>
+      </c>
+      <c r="D200">
+        <v>1411.0192999999999</v>
+      </c>
+      <c r="E200">
+        <v>119893</v>
+      </c>
+      <c r="F200">
+        <v>1080107</v>
+      </c>
+      <c r="G200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201">
+        <v>467441.08370000002</v>
+      </c>
+      <c r="D201">
+        <v>6153.7089999999998</v>
+      </c>
+      <c r="E201">
+        <v>467694</v>
+      </c>
+      <c r="F201">
+        <v>612413</v>
+      </c>
+      <c r="G201">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>33</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B202" t="s">
         <v>34</v>
       </c>
-      <c r="C200">
+      <c r="C202">
         <v>612347.40540000005</v>
       </c>
-      <c r="D200">
+      <c r="D202">
         <v>10174.0201</v>
       </c>
-      <c r="E200">
+      <c r="E202">
         <v>612413</v>
       </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-      <c r="G200">
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
         <v>100</v>
       </c>
     </row>
@@ -6518,7 +6540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -6579,7 +6601,7 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <f>E2/H2</f>
+        <f t="shared" ref="I2:I33" si="0">E2/H2</f>
         <v>73.149779999999993</v>
       </c>
     </row>
@@ -6609,7 +6631,7 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <f>E3/H3</f>
+        <f t="shared" si="0"/>
         <v>94.42913999999999</v>
       </c>
     </row>
@@ -6639,7 +6661,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <f>E4/H4</f>
+        <f t="shared" si="0"/>
         <v>99.12672666666667</v>
       </c>
     </row>
@@ -6669,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <f>E5/H5</f>
+        <f t="shared" si="0"/>
         <v>97.367789999999999</v>
       </c>
     </row>
@@ -6699,7 +6721,7 @@
         <v>25</v>
       </c>
       <c r="I6">
-        <f>E6/H6</f>
+        <f t="shared" si="0"/>
         <v>97.395948000000004</v>
       </c>
     </row>
@@ -6729,7 +6751,7 @@
         <v>30</v>
       </c>
       <c r="I7">
-        <f>E7/H7</f>
+        <f t="shared" si="0"/>
         <v>99.015270000000001</v>
       </c>
     </row>
@@ -6759,7 +6781,7 @@
         <v>35</v>
       </c>
       <c r="I8">
-        <f>E8/H8</f>
+        <f t="shared" si="0"/>
         <v>101.34774285714285</v>
       </c>
     </row>
@@ -6789,7 +6811,7 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <f>E9/H9</f>
+        <f t="shared" si="0"/>
         <v>98.265954999999991</v>
       </c>
     </row>
@@ -6819,7 +6841,7 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <f>E10/H10</f>
+        <f t="shared" si="0"/>
         <v>98.317011111111114</v>
       </c>
     </row>
@@ -6849,7 +6871,7 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <f>E11/H11</f>
+        <f t="shared" si="0"/>
         <v>99.252914000000004</v>
       </c>
     </row>
@@ -6879,7 +6901,7 @@
         <v>55</v>
       </c>
       <c r="I12">
-        <f>E12/H12</f>
+        <f t="shared" si="0"/>
         <v>99.983947272727278</v>
       </c>
     </row>
@@ -6909,7 +6931,7 @@
         <v>60</v>
       </c>
       <c r="I13">
-        <f>E13/H13</f>
+        <f t="shared" si="0"/>
         <v>100.83131166666666</v>
       </c>
     </row>
@@ -6939,7 +6961,7 @@
         <v>65</v>
       </c>
       <c r="I14">
-        <f>E14/H14</f>
+        <f t="shared" si="0"/>
         <v>101.94931538461539</v>
       </c>
     </row>
@@ -6969,7 +6991,7 @@
         <v>70</v>
       </c>
       <c r="I15">
-        <f>E15/H15</f>
+        <f t="shared" si="0"/>
         <v>101.26924285714286</v>
       </c>
     </row>
@@ -6999,7 +7021,7 @@
         <v>75</v>
       </c>
       <c r="I16">
-        <f>E16/H16</f>
+        <f t="shared" si="0"/>
         <v>102.02161599999999</v>
       </c>
     </row>
@@ -7029,7 +7051,7 @@
         <v>80</v>
       </c>
       <c r="I17">
-        <f>E17/H17</f>
+        <f t="shared" si="0"/>
         <v>101.86561500000001</v>
       </c>
     </row>
@@ -7059,7 +7081,7 @@
         <v>85</v>
       </c>
       <c r="I18">
-        <f>E18/H18</f>
+        <f t="shared" si="0"/>
         <v>102.16724823529411</v>
       </c>
     </row>
@@ -7089,7 +7111,7 @@
         <v>90</v>
       </c>
       <c r="I19">
-        <f>E19/H19</f>
+        <f t="shared" si="0"/>
         <v>101.78360444444445</v>
       </c>
     </row>
@@ -7119,7 +7141,7 @@
         <v>95</v>
       </c>
       <c r="I20">
-        <f>E20/H20</f>
+        <f t="shared" si="0"/>
         <v>102.21868315789474</v>
       </c>
     </row>
@@ -7149,7 +7171,7 @@
         <v>100</v>
       </c>
       <c r="I21">
-        <f>E21/H21</f>
+        <f t="shared" si="0"/>
         <v>101.740201</v>
       </c>
     </row>
@@ -7179,7 +7201,7 @@
         <v>5</v>
       </c>
       <c r="I22">
-        <f>E22/H22</f>
+        <f t="shared" si="0"/>
         <v>73.149779999999993</v>
       </c>
     </row>
@@ -7209,7 +7231,7 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <f>E23/H23</f>
+        <f t="shared" si="0"/>
         <v>94.42913999999999</v>
       </c>
     </row>
@@ -7239,7 +7261,7 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <f>E24/H24</f>
+        <f t="shared" si="0"/>
         <v>116.62960000000001</v>
       </c>
     </row>
@@ -7269,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="I25">
-        <f>E25/H25</f>
+        <f t="shared" si="0"/>
         <v>128.0857125</v>
       </c>
     </row>
@@ -7299,7 +7321,7 @@
         <v>8</v>
       </c>
       <c r="I26">
-        <f>E26/H26</f>
+        <f t="shared" si="0"/>
         <v>133.11613750000001</v>
       </c>
     </row>
@@ -7329,7 +7351,7 @@
         <v>8</v>
       </c>
       <c r="I27">
-        <f>E27/H27</f>
+        <f t="shared" si="0"/>
         <v>132.57272499999999</v>
       </c>
     </row>
@@ -7359,7 +7381,7 @@
         <v>9</v>
       </c>
       <c r="I28">
-        <f>E28/H28</f>
+        <f t="shared" si="0"/>
         <v>137.80735555555555</v>
       </c>
     </row>
@@ -7389,7 +7411,7 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <f>E29/H29</f>
+        <f t="shared" si="0"/>
         <v>128.76687999999999</v>
       </c>
     </row>
@@ -7419,7 +7441,7 @@
         <v>8</v>
       </c>
       <c r="I30">
-        <f>E30/H30</f>
+        <f t="shared" si="0"/>
         <v>137.0932875</v>
       </c>
     </row>
@@ -7449,7 +7471,7 @@
         <v>9</v>
       </c>
       <c r="I31">
-        <f>E31/H31</f>
+        <f t="shared" si="0"/>
         <v>137.74764444444446</v>
       </c>
     </row>
@@ -7479,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="I32">
-        <f>E32/H32</f>
+        <f t="shared" si="0"/>
         <v>143.53827777777778</v>
       </c>
     </row>
@@ -7509,7 +7531,7 @@
         <v>9</v>
       </c>
       <c r="I33">
-        <f>E33/H33</f>
+        <f t="shared" si="0"/>
         <v>143.99596666666667</v>
       </c>
     </row>
@@ -7539,7 +7561,7 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <f>E34/H34</f>
+        <f t="shared" ref="I34:I65" si="1">E34/H34</f>
         <v>139.46399</v>
       </c>
     </row>
@@ -7569,7 +7591,7 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <f>E35/H35</f>
+        <f t="shared" si="1"/>
         <v>136.08895000000001</v>
       </c>
     </row>
@@ -7599,7 +7621,7 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <f>E36/H36</f>
+        <f t="shared" si="1"/>
         <v>140.59141</v>
       </c>
     </row>
@@ -7629,7 +7651,7 @@
         <v>10</v>
       </c>
       <c r="I37">
-        <f>E37/H37</f>
+        <f t="shared" si="1"/>
         <v>132.70060000000001</v>
       </c>
     </row>
@@ -7659,7 +7681,7 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <f>E38/H38</f>
+        <f t="shared" si="1"/>
         <v>142.05914999999999</v>
       </c>
     </row>
@@ -7689,7 +7711,7 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <f>E39/H39</f>
+        <f t="shared" si="1"/>
         <v>139.91421</v>
       </c>
     </row>
@@ -7719,7 +7741,7 @@
         <v>9</v>
       </c>
       <c r="I40">
-        <f>E40/H40</f>
+        <f t="shared" si="1"/>
         <v>137.48855555555554</v>
       </c>
     </row>
@@ -7749,7 +7771,7 @@
         <v>10</v>
       </c>
       <c r="I41">
-        <f>E41/H41</f>
+        <f t="shared" si="1"/>
         <v>141.10192999999998</v>
       </c>
     </row>
@@ -7779,7 +7801,7 @@
         <v>5</v>
       </c>
       <c r="I42">
-        <f>E42/H42</f>
+        <f t="shared" si="1"/>
         <v>73.149779999999993</v>
       </c>
     </row>
@@ -7809,7 +7831,7 @@
         <v>10</v>
       </c>
       <c r="I43">
-        <f>E43/H43</f>
+        <f t="shared" si="1"/>
         <v>94.42913999999999</v>
       </c>
     </row>
@@ -7839,7 +7861,7 @@
         <v>15</v>
       </c>
       <c r="I44">
-        <f>E44/H44</f>
+        <f t="shared" si="1"/>
         <v>99.12672666666667</v>
       </c>
     </row>
@@ -7869,7 +7891,7 @@
         <v>20</v>
       </c>
       <c r="I45">
-        <f>E45/H45</f>
+        <f t="shared" si="1"/>
         <v>97.367789999999999</v>
       </c>
     </row>
@@ -7899,7 +7921,7 @@
         <v>25</v>
       </c>
       <c r="I46">
-        <f>E46/H46</f>
+        <f t="shared" si="1"/>
         <v>97.395948000000004</v>
       </c>
     </row>
@@ -7929,7 +7951,7 @@
         <v>30</v>
       </c>
       <c r="I47">
-        <f>E47/H47</f>
+        <f t="shared" si="1"/>
         <v>99.015270000000001</v>
       </c>
     </row>
@@ -7959,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="I48">
-        <f>E48/H48</f>
+        <f t="shared" si="1"/>
         <v>101.34774285714285</v>
       </c>
     </row>
@@ -7989,7 +8011,7 @@
         <v>40</v>
       </c>
       <c r="I49">
-        <f>E49/H49</f>
+        <f t="shared" si="1"/>
         <v>98.265954999999991</v>
       </c>
     </row>
@@ -8019,7 +8041,7 @@
         <v>45</v>
       </c>
       <c r="I50">
-        <f>E50/H50</f>
+        <f t="shared" si="1"/>
         <v>98.317011111111114</v>
       </c>
     </row>
@@ -8049,7 +8071,7 @@
         <v>49</v>
       </c>
       <c r="I51">
-        <f>E51/H51</f>
+        <f t="shared" si="1"/>
         <v>100.24054489795918</v>
       </c>
     </row>
@@ -8079,7 +8101,7 @@
         <v>51</v>
       </c>
       <c r="I52">
-        <f>E52/H52</f>
+        <f t="shared" si="1"/>
         <v>103.32455294117648</v>
       </c>
     </row>
@@ -8109,7 +8131,7 @@
         <v>51</v>
       </c>
       <c r="I53">
-        <f>E53/H53</f>
+        <f t="shared" si="1"/>
         <v>107.68471764705883</v>
       </c>
     </row>
@@ -8139,7 +8161,7 @@
         <v>51</v>
       </c>
       <c r="I54">
-        <f>E54/H54</f>
+        <f t="shared" si="1"/>
         <v>111.88149607843137</v>
       </c>
     </row>
@@ -8169,7 +8191,7 @@
         <v>51</v>
       </c>
       <c r="I55">
-        <f>E55/H55</f>
+        <f t="shared" si="1"/>
         <v>113.44882352941177</v>
       </c>
     </row>
@@ -8199,7 +8221,7 @@
         <v>49</v>
       </c>
       <c r="I56">
-        <f>E56/H56</f>
+        <f t="shared" si="1"/>
         <v>117.16233469387754</v>
       </c>
     </row>
@@ -8229,7 +8251,7 @@
         <v>49</v>
       </c>
       <c r="I57">
-        <f>E57/H57</f>
+        <f t="shared" si="1"/>
         <v>118.79337346938775</v>
       </c>
     </row>
@@ -8259,7 +8281,7 @@
         <v>49</v>
       </c>
       <c r="I58">
-        <f>E58/H58</f>
+        <f t="shared" si="1"/>
         <v>121.45768163265306</v>
       </c>
     </row>
@@ -8289,7 +8311,7 @@
         <v>49</v>
       </c>
       <c r="I59">
-        <f>E59/H59</f>
+        <f t="shared" si="1"/>
         <v>122.34842244897959</v>
       </c>
     </row>
@@ -8319,7 +8341,7 @@
         <v>49</v>
       </c>
       <c r="I60">
-        <f>E60/H60</f>
+        <f t="shared" si="1"/>
         <v>123.86675714285714</v>
       </c>
     </row>
@@ -8349,7 +8371,7 @@
         <v>49</v>
       </c>
       <c r="I61">
-        <f>E61/H61</f>
+        <f t="shared" si="1"/>
         <v>125.58589795918367</v>
       </c>
     </row>
